--- a/analysis/mails_01/P16_2/table_to_fill.xlsx
+++ b/analysis/mails_01/P16_2/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -63,6 +63,12 @@
     <t xml:space="preserve">sandfilter</t>
   </si>
   <si>
+    <t xml:space="preserve">55.3571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3742</t>
+  </si>
+  <si>
     <t xml:space="preserve">drinking_water</t>
   </si>
   <si>
@@ -87,124 +93,250 @@
     <t xml:space="preserve">MFD10945</t>
   </si>
   <si>
+    <t xml:space="preserve">56.2384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2235</t>
+  </si>
+  <si>
     <t xml:space="preserve">elsted</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10946</t>
   </si>
   <si>
+    <t xml:space="preserve">55.2903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1887</t>
+  </si>
+  <si>
     <t xml:space="preserve">holmehave</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10947</t>
   </si>
   <si>
+    <t xml:space="preserve">55.3932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.373</t>
+  </si>
+  <si>
     <t xml:space="preserve">hovedværket</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10948</t>
   </si>
   <si>
+    <t xml:space="preserve">56.2091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1273</t>
+  </si>
+  <si>
     <t xml:space="preserve">kasted</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10949</t>
   </si>
   <si>
+    <t xml:space="preserve">55.3376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4111</t>
+  </si>
+  <si>
     <t xml:space="preserve">lindved</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10950</t>
   </si>
   <si>
+    <t xml:space="preserve">55.1365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.526</t>
+  </si>
+  <si>
     <t xml:space="preserve">lunde</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10951</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1136</t>
+  </si>
+  <si>
     <t xml:space="preserve">stavstrup</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10952</t>
   </si>
   <si>
+    <t xml:space="preserve">56.2339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1682</t>
+  </si>
+  <si>
     <t xml:space="preserve">truelsbjerg</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10953</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1366</t>
+  </si>
+  <si>
     <t xml:space="preserve">østerby</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10954</t>
   </si>
   <si>
+    <t xml:space="preserve">56.4183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3888</t>
+  </si>
+  <si>
     <t xml:space="preserve">sydværket</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10955</t>
   </si>
   <si>
+    <t xml:space="preserve">57.4369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0496</t>
+  </si>
+  <si>
     <t xml:space="preserve">bredkær</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10956</t>
   </si>
   <si>
+    <t xml:space="preserve">57.4359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0117</t>
+  </si>
+  <si>
     <t xml:space="preserve">bagterp</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10957</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.676</t>
+  </si>
+  <si>
     <t xml:space="preserve">egedal</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10958</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9411</t>
+  </si>
+  <si>
     <t xml:space="preserve">fredensborg</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10959</t>
   </si>
   <si>
+    <t xml:space="preserve">55.7019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.536</t>
+  </si>
+  <si>
     <t xml:space="preserve">sdr vejle</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10960</t>
   </si>
   <si>
+    <t xml:space="preserve">55.4723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.466</t>
+  </si>
+  <si>
     <t xml:space="preserve">søndre vandværk kolding</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10961</t>
   </si>
   <si>
+    <t xml:space="preserve">55.5975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6157</t>
+  </si>
+  <si>
     <t xml:space="preserve">follerup</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10962</t>
   </si>
   <si>
+    <t xml:space="preserve">55.4938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4801</t>
+  </si>
+  <si>
     <t xml:space="preserve">astrup</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10963</t>
   </si>
   <si>
+    <t xml:space="preserve">56.4749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4119</t>
+  </si>
+  <si>
     <t xml:space="preserve">nordværket</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10964</t>
   </si>
   <si>
-    <t xml:space="preserve">kildeværket </t>
+    <t xml:space="preserve">56.1431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kildeværket</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.5045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4944</t>
   </si>
   <si>
     <t xml:space="preserve">esbjergværket</t>
@@ -283,7 +415,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,6 +425,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBCE0A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE38140"/>
       </patternFill>
     </fill>
   </fills>
@@ -308,10 +445,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,920 +795,876 @@
         <v>15</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" t="n">
-        <v>55.3571</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10.3742</v>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M2" s="3"/>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" t="n">
-        <v>56.2384</v>
-      </c>
-      <c r="E3" t="n">
-        <v>10.2235</v>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M3" s="3"/>
       <c r="N3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" t="n">
-        <v>55.2903</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10.1887</v>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M4" s="3"/>
       <c r="N4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" t="n">
-        <v>55.3932</v>
-      </c>
-      <c r="E5" t="n">
-        <v>10.373</v>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M5" s="3"/>
       <c r="N5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" t="n">
-        <v>56.2091</v>
-      </c>
-      <c r="E6" t="n">
-        <v>10.1273</v>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M6" s="3"/>
       <c r="N6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" t="n">
-        <v>55.3376</v>
-      </c>
-      <c r="E7" t="n">
-        <v>10.4111</v>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M7" s="3"/>
       <c r="N7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" t="n">
-        <v>55.1365</v>
-      </c>
-      <c r="E8" t="n">
-        <v>10.526</v>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M8" s="3"/>
       <c r="N8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" t="n">
-        <v>56.1284</v>
-      </c>
-      <c r="E9" t="n">
-        <v>10.1136</v>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M9" s="3"/>
       <c r="N9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" t="n">
-        <v>56.2339</v>
-      </c>
-      <c r="E10" t="n">
-        <v>10.1682</v>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M10" s="3"/>
       <c r="N10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" t="n">
-        <v>56.0792</v>
-      </c>
-      <c r="E11" t="n">
-        <v>10.1366</v>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M11" s="3"/>
       <c r="N11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" t="n">
-        <v>56.4183</v>
-      </c>
-      <c r="E12" t="n">
-        <v>9.3888</v>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M12" s="3"/>
       <c r="N12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" t="n">
-        <v>57.4369</v>
-      </c>
-      <c r="E13" t="n">
-        <v>10.0496</v>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M13" s="3"/>
       <c r="N13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" t="n">
-        <v>57.4359</v>
-      </c>
-      <c r="E14" t="n">
-        <v>10.0117</v>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L14" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M14" s="3"/>
       <c r="N14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" t="n">
-        <v>56.1831</v>
-      </c>
-      <c r="E15" t="n">
-        <v>10.676</v>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L15" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M15" s="3"/>
       <c r="N15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" t="n">
-        <v>56.0475</v>
-      </c>
-      <c r="E16" t="n">
-        <v>9.9411</v>
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M16" s="3"/>
       <c r="N16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" t="n">
-        <v>55.7019</v>
-      </c>
-      <c r="E17" t="n">
-        <v>9.536</v>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L17" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M17" s="3"/>
       <c r="N17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" t="n">
-        <v>55.4723</v>
-      </c>
-      <c r="E18" t="n">
-        <v>9.466</v>
+      <c r="D18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L18" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M18" s="3"/>
       <c r="N18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" t="n">
-        <v>55.5975</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9.6157</v>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L19" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M19" s="3"/>
       <c r="N19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" t="n">
-        <v>55.4938</v>
-      </c>
-      <c r="E20" t="n">
-        <v>8.4801</v>
+      <c r="D20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" t="s">
+        <v>95</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L20" t="s">
-        <v>21</v>
-      </c>
-      <c r="M20" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M20" s="3"/>
       <c r="N20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" t="n">
-        <v>56.4749</v>
-      </c>
-      <c r="E21" t="n">
-        <v>9.4119</v>
+      <c r="D21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" t="s">
+        <v>99</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L21" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M21" s="3"/>
       <c r="N21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" t="n">
-        <v>56.1431</v>
-      </c>
-      <c r="E22" t="n">
-        <v>9.1585</v>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" t="s">
+        <v>103</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="I22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L22" t="s">
-        <v>21</v>
-      </c>
-      <c r="M22" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M22" s="3"/>
       <c r="N22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" t="n">
-        <v>55.5045</v>
-      </c>
-      <c r="E23" t="n">
-        <v>8.4944</v>
+      <c r="D23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" t="s">
+        <v>107</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>21</v>
-      </c>
-      <c r="M23" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M23" s="3"/>
       <c r="N23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1589,10 +1683,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2">
@@ -1600,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3">
@@ -1608,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
@@ -1616,7 +1710,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5">
@@ -1624,7 +1718,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
@@ -1632,7 +1726,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7">
@@ -1640,7 +1734,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
@@ -1648,7 +1742,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
@@ -1656,7 +1750,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
@@ -1664,7 +1758,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
@@ -1672,7 +1766,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -1680,7 +1774,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
@@ -1688,7 +1782,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
@@ -1696,7 +1790,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1798,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P16_2/table_to_fill.xlsx
+++ b/analysis/mails_01/P16_2/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -63,6 +63,9 @@
     <t xml:space="preserve">sandfilter</t>
   </si>
   <si>
+    <t xml:space="preserve">2018-09-06</t>
+  </si>
+  <si>
     <t xml:space="preserve">55.3571</t>
   </si>
   <si>
@@ -93,6 +96,9 @@
     <t xml:space="preserve">MFD10945</t>
   </si>
   <si>
+    <t xml:space="preserve">2018-10-09</t>
+  </si>
+  <si>
     <t xml:space="preserve">56.2384</t>
   </si>
   <si>
@@ -105,6 +111,9 @@
     <t xml:space="preserve">MFD10946</t>
   </si>
   <si>
+    <t xml:space="preserve">2018-09-03</t>
+  </si>
+  <si>
     <t xml:space="preserve">55.2903</t>
   </si>
   <si>
@@ -117,6 +126,9 @@
     <t xml:space="preserve">MFD10947</t>
   </si>
   <si>
+    <t xml:space="preserve">2018-06-25</t>
+  </si>
+  <si>
     <t xml:space="preserve">55.3932</t>
   </si>
   <si>
@@ -129,6 +141,9 @@
     <t xml:space="preserve">MFD10948</t>
   </si>
   <si>
+    <t xml:space="preserve">2018-07-30</t>
+  </si>
+  <si>
     <t xml:space="preserve">56.2091</t>
   </si>
   <si>
@@ -153,6 +168,9 @@
     <t xml:space="preserve">MFD10950</t>
   </si>
   <si>
+    <t xml:space="preserve">2018-05-15</t>
+  </si>
+  <si>
     <t xml:space="preserve">55.1365</t>
   </si>
   <si>
@@ -165,6 +183,9 @@
     <t xml:space="preserve">MFD10951</t>
   </si>
   <si>
+    <t xml:space="preserve">2018-07-03</t>
+  </si>
+  <si>
     <t xml:space="preserve">56.1284</t>
   </si>
   <si>
@@ -189,6 +210,9 @@
     <t xml:space="preserve">MFD10953</t>
   </si>
   <si>
+    <t xml:space="preserve">2018-06-06</t>
+  </si>
+  <si>
     <t xml:space="preserve">56.0792</t>
   </si>
   <si>
@@ -201,6 +225,9 @@
     <t xml:space="preserve">MFD10954</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-10-28</t>
+  </si>
+  <si>
     <t xml:space="preserve">56.4183</t>
   </si>
   <si>
@@ -213,6 +240,9 @@
     <t xml:space="preserve">MFD10955</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-12-14</t>
+  </si>
+  <si>
     <t xml:space="preserve">57.4369</t>
   </si>
   <si>
@@ -225,6 +255,9 @@
     <t xml:space="preserve">MFD10956</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-10-27</t>
+  </si>
+  <si>
     <t xml:space="preserve">57.4359</t>
   </si>
   <si>
@@ -237,6 +270,9 @@
     <t xml:space="preserve">MFD10957</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-08-26</t>
+  </si>
+  <si>
     <t xml:space="preserve">56.1831</t>
   </si>
   <si>
@@ -249,6 +285,9 @@
     <t xml:space="preserve">MFD10958</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-09-29</t>
+  </si>
+  <si>
     <t xml:space="preserve">56.0475</t>
   </si>
   <si>
@@ -261,6 +300,9 @@
     <t xml:space="preserve">MFD10959</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-09-14</t>
+  </si>
+  <si>
     <t xml:space="preserve">55.7019</t>
   </si>
   <si>
@@ -273,6 +315,9 @@
     <t xml:space="preserve">MFD10960</t>
   </si>
   <si>
+    <t xml:space="preserve">2018-08-20</t>
+  </si>
+  <si>
     <t xml:space="preserve">55.4723</t>
   </si>
   <si>
@@ -297,6 +342,9 @@
     <t xml:space="preserve">MFD10962</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-11-09</t>
+  </si>
+  <si>
     <t xml:space="preserve">55.4938</t>
   </si>
   <si>
@@ -309,6 +357,9 @@
     <t xml:space="preserve">MFD10963</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-10-22</t>
+  </si>
+  <si>
     <t xml:space="preserve">56.4749</t>
   </si>
   <si>
@@ -321,6 +372,9 @@
     <t xml:space="preserve">MFD10964</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-04-15</t>
+  </si>
+  <si>
     <t xml:space="preserve">56.1431</t>
   </si>
   <si>
@@ -331,6 +385,9 @@
   </si>
   <si>
     <t xml:space="preserve">MFD10965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-30</t>
   </si>
   <si>
     <t xml:space="preserve">55.5045</t>
@@ -415,17 +472,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBCE0A8"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -445,11 +497,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,877 +845,921 @@
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M2" s="2"/>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M3" s="2"/>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M4" s="2"/>
       <c r="N4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M5" s="2"/>
       <c r="N5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M6" s="2"/>
       <c r="N6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M7" s="2"/>
       <c r="N7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M8" s="2"/>
       <c r="N8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M9" s="2"/>
       <c r="N9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L11" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L12" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L15" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L16" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L17" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" t="s">
+        <v>100</v>
+      </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L18" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="I19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" t="s">
+        <v>109</v>
+      </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L20" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L21" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" t="s">
+        <v>119</v>
+      </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="I22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L22" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" t="s">
+        <v>124</v>
+      </c>
       <c r="D23" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L23" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1683,10 +1778,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
@@ -1694,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3">
@@ -1702,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4">
@@ -1710,7 +1805,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5">
@@ -1718,7 +1813,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6">
@@ -1726,7 +1821,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7">
@@ -1734,7 +1829,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8">
@@ -1742,7 +1837,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9">
@@ -1750,7 +1845,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10">
@@ -1758,7 +1853,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11">
@@ -1766,7 +1861,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12">
@@ -1774,7 +1869,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -1782,7 +1877,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
@@ -1790,7 +1885,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
@@ -1798,7 +1893,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
